--- a/template/Tour create.xlsx
+++ b/template/Tour create.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO 5\Desktop\FPT Study Road\Capstone\Capstone\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocFPT\Seme_9\SEP490\Project\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854A54E-D24F-496E-842C-507916DE99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65627479-C513-413B-A0C3-47B9E22DAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NITRO 5</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{C028D4A9-CB4E-4383-A571-2D3335E6A50C}">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{ED12F22D-2C02-4BFF-A5ED-70A2C31DBA5D}">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{141CF180-FAAB-4982-ACC2-15277FFA0DF3}">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A6DF9571-8CA8-44B4-B93D-B98E604DEE4D}">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{EB9070A6-81D8-4480-B669-F03939A4091E}">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{DE07C3B7-5411-42DD-BF0C-705793C636D7}">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{9F4DE1A9-0D6C-4AA1-9662-832DE5CA2F9E}">
+    <comment ref="C31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{6FE8FD2C-CF56-4FEF-91B8-6DB760842F5B}">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Template for create tour, please fill in the the template</t>
   </si>
@@ -349,11 +348,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -472,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,13 +480,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,110 +803,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F922C9F-64A9-4A5B-9EB7-54984B611250}">
-  <dimension ref="B1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="D6" s="6">
+        <v>45231</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45260</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45285</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45231</v>
+      </c>
       <c r="E7" s="6">
+        <v>45260</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45286</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
         <v>45231</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
       <c r="E8" s="6">
         <v>45260</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+      <c r="F8" s="6">
+        <v>45287</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45231</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45260</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45288</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="E27" s="6">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="6">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="E9" s="6">
+      <c r="C29" s="11"/>
+      <c r="E29" s="6">
         <v>45285</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+    <row r="30" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="E10" s="7">
+      <c r="C30" s="12"/>
+      <c r="E30" s="7">
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+    <row r="31" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="E11" s="5" t="s">
+      <c r="C31" s="10"/>
+      <c r="E31" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+    <row r="32" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="5" t="s">
+      <c r="C32" s="10"/>
+      <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
